--- a/20150927-farmsafety/builds/production/data/maindata.xlsx
+++ b/20150927-farmsafety/builds/production/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="deaths" sheetId="1" r:id="rId1"/>
     <sheet name="rates" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="4" r:id="rId3"/>
+    <sheet name="layout" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1273">
   <si>
     <t>record_no</t>
   </si>
@@ -3765,6 +3766,81 @@
   </si>
   <si>
     <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Record number</t>
+  </si>
+  <si>
+    <t>Year of death</t>
+  </si>
+  <si>
+    <t>Minnesota county of death</t>
+  </si>
+  <si>
+    <t>Victim name</t>
+  </si>
+  <si>
+    <t>Victim age</t>
+  </si>
+  <si>
+    <t>Victim age bracket</t>
+  </si>
+  <si>
+    <t>Victim's city of residence</t>
+  </si>
+  <si>
+    <t>Victim's city of death</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>Cause of death</t>
+  </si>
+  <si>
+    <t>Death icon URL</t>
+  </si>
+  <si>
+    <t>Category number</t>
+  </si>
+  <si>
+    <t>Category color</t>
+  </si>
+  <si>
+    <t>Incident description</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Obituary URL</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Number of farm-related deaths in 1992</t>
+  </si>
+  <si>
+    <t>Number of farm-related deaths in 2003</t>
+  </si>
+  <si>
+    <t>Numeric change in farm-related deaths between 2003 and 1992</t>
+  </si>
+  <si>
+    <t>Percent change in farm-related deaths between 2003 and 1992</t>
+  </si>
+  <si>
+    <t>Farm-related death rate in 2012</t>
+  </si>
+  <si>
+    <t>Number of farm workers in 2012</t>
+  </si>
+  <si>
+    <t>Total number of farms in 2012</t>
   </si>
 </sst>
 </file>
@@ -4268,9 +4344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -15704,6 +15780,7 @@
     <hyperlink ref="Q96" r:id="rId201"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15718,7 +15795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -17175,6 +17252,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17187,8 +17265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -17241,6 +17319,241 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="33" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="33" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
